--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quiz-1</t>
+          <t>Python basics – 1</t>
         </is>
       </c>
     </row>
@@ -480,12 +480,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>next quiz to unlock</t>
+          <t>next lessons to unlock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1,,,6</t>
+          <t>"1,2"</t>
         </is>
       </c>
     </row>
@@ -539,28 +539,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>q1</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4</v>
+          <t>What is Python?</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A high-level programming language.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>A type of snake.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A new data structure.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A popular TV show.</t>
+        </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H9" t="b">
         <v>1</v>
@@ -572,28 +580,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>q2</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4</v>
+          <t>What are Python namespaces?</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A place where Python code lives.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>A way to define variables in Python.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A type of function in Python.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A part of a computer's memory.</t>
+        </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
@@ -605,28 +621,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>q3</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4</v>
+          <t>Explain Python variables.</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Ways to store data in Python.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A way to store files.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Names given to variables.</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Python functions.</t>
+        </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
@@ -638,28 +662,36 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>q4</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4</v>
+          <t>What is PEP 8?</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A code style guide for Python.</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>The latest Python version.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A Python programming tool.</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A Python standard library.</t>
+        </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H12" t="b">
         <v>1</v>
@@ -671,28 +703,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>q5</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>4</v>
+          <t>How do you comment in Python?</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Using a '#' symbol.</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>By writing 'comment' keyword.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>By using triple quotes.</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Comments are not allowed in Python.</t>
+        </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -704,28 +744,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>q6</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>4</v>
+          <t>What is a Python dictionary?</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A built-in data structure.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A type of snake.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A Python decorator.</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>A type of function.</t>
+        </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
@@ -737,28 +785,36 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>q7</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4</v>
+          <t>What are Python data types?</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Types of snakes.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>The number of lines in Python code.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Different categories of Python functions.</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Different data structures in Python.</t>
+        </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H15" t="b">
         <v>1</v>
@@ -770,28 +826,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>q8</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3</v>
-      </c>
-      <c r="E16" t="n">
-        <v>4</v>
+          <t>What is a tuple in Python?</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>A data structure in Python.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A function in Python.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A type of variable.</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>A way to store files in Python.</t>
+        </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
@@ -803,28 +867,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>q9</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4</v>
+          <t>How do you create a Python function?</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>By using the 'def' keyword.</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>By using the 'function' keyword.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>By defining a variable.</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Functions cannot be created in Python.</t>
+        </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
@@ -836,33 +908,656 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>q10</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
+          <t>What is the purpose of 'pass' statement in Python?</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A way to break a loop.</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>A way to skip a function.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>A placeholder for future code.</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A way to define a function in Python.</t>
+        </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
       </c>
       <c r="I18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>What is Python's main use?</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>For web development.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>For data analysis.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>For making mobile apps.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>For making video games.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>What is the difference between '==' and 'is' in Python?</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>They are the same.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>They are different ways to compare variables.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>They are used for mathematical operations.</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>None of the above.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>What is a list comprehension in Python?</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A way to make Python code shorter.</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>A way to generate random numbers.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>A way to filter data.</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>None of the above.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Explain Python decorators.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Decorations on Python functions.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Python classes.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Built-in Python functions.</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A way to create comments in Python.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>What is a lambda function in Python?</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A type of Python function.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A data structure in Python.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A Python module.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A way to define variables in Python.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>What is the difference between 'append' and 'extend' in Python lists?</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>A way to add elements to a Python list.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>A way to check the length of a list.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>They are the same.</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>None of the above.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>What is the 'self' keyword in Python?</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>A keyword used in Python.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>A variable in Python.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>A way to reference an object.</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A way to create a class.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="b">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Explain Python generators.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A way to create electricity.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A way to handle exceptions in Python.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>A type of Python function.</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A type of loop in Python.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="b">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>How do you handle exceptions in Python?</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A type of variable in Python.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>A way to create lists in Python.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>A way to generate random numbers in Python.</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A way to print in Python.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="b">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>What is the purpose of 'with' statement in Python?</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A way to open files in Python.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>A way to define functions in Python.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A way to create modules in Python.</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A way to check the length of a list in Python.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>What is the difference between 'deep copy' and 'shallow copy' in Python?</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Two different ways to copy files in Python.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Two different Python libraries.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Two different Python modules.</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Two different Python operations.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>What is a Python module?</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A type of Python file.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A type of Python function.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>A type of Python module.</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A type of Python data structure.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2</v>
+      </c>
+      <c r="H30" t="b">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Explain Python closures.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>A way to make Python functions shorter.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>A way to define variables in Python.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>A way to create Python modules.</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A way to create Python classes.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="b">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>What are 'args' and 'kwargs' in Python?</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Positional and keyword arguments in Python.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>A way to define functions in Python.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Built-in Python functions.</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A way to define variables in Python.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="b">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>How do you handle file operations in Python?</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>By using the 'args' keyword in Python.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>By using the 'kwargs' keyword in Python.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>By using the 'arguments' keyword in Python.</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>By defining them as normal variables in Python.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
     </row>
